--- a/DeepESN/DO_Results.xlsx
+++ b/DeepESN/DO_Results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="model_summaries" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model_summaries" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,28 +581,28 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7274332531128732</v>
+        <v>0.7314590131410988</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05972376535858127</v>
+        <v>0.05826519585223427</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5249250580657553</v>
+        <v>0.5052730792014741</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8629452896528323</v>
+        <v>0.8614241160812022</v>
       </c>
       <c r="R2" t="n">
-        <v>1.995691466134972</v>
+        <v>2.029700249935169</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2428535746708834</v>
+        <v>0.2453985253125837</v>
       </c>
       <c r="T2" t="n">
-        <v>1.776457332968711</v>
+        <v>1.792138120293617</v>
       </c>
       <c r="U2" t="n">
-        <v>-6.256519793905787</v>
+        <v>-6.505945283620632</v>
       </c>
     </row>
   </sheetData>
